--- a/data/trans_bre/P1409-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1409-Estudios-trans_bre.xlsx
@@ -627,7 +627,7 @@
         <v>0.4311377481990459</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2589918957071699</v>
+        <v>0.25899189570717</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9522178166627235</v>
+        <v>-0.8697901701604914</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5333236754213303</v>
+        <v>-0.4340783161644083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.162993267422819</v>
+        <v>-0.7994738865128295</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2794982613490484</v>
+        <v>-0.2829006299276459</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1647549897843425</v>
+        <v>-0.1308357872162964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1881258021351187</v>
+        <v>-0.122940307361269</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.940828429060546</v>
+        <v>1.977694690738891</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.118085438720633</v>
+        <v>3.124310772085032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.310919502485997</v>
+        <v>3.392882471306807</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.026887336886537</v>
+        <v>1.065889159931674</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.33103604052265</v>
+        <v>1.379369241541438</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9637099582506949</v>
+        <v>1.037975888079666</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.250803796773214</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8563214588045743</v>
+        <v>0.8563214588045751</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4243901720987231</v>
@@ -709,7 +709,7 @@
         <v>0.4904344195276833</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2426488244419951</v>
+        <v>0.2426488244419954</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2437510838019878</v>
+        <v>-0.1971584168729749</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1723889314134286</v>
+        <v>0.05020103612724944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.558155786700622</v>
+        <v>-0.463989846161286</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1126971610546335</v>
+        <v>-0.1186989717010607</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05349003577590207</v>
+        <v>0.01497324406176913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1395530630104254</v>
+        <v>-0.1099539237333098</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.589846866705541</v>
+        <v>1.711977414479604</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.227520513472224</v>
+        <v>2.340656744050905</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.09160171042195</v>
+        <v>2.015645120538954</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.238140055741231</v>
+        <v>1.298724822994164</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.061856844332233</v>
+        <v>1.166778061233768</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.727086918533928</v>
+        <v>0.7378569514536394</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>1.893551476525361</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4165082927281731</v>
+        <v>0.4165082927281738</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.646932354682242</v>
@@ -791,7 +791,7 @@
         <v>1.068926324383621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1026261265965657</v>
+        <v>0.1026261265965658</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8593919540178753</v>
+        <v>-0.8368980971843074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1148506351494525</v>
+        <v>-0.1086960013915292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.113700432117661</v>
+        <v>-2.097992831804526</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4446188065290551</v>
+        <v>-0.4197800606554277</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1664827208114251</v>
+        <v>-0.09970672595122076</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3723444018641583</v>
+        <v>-0.3718116607446491</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.030217735391637</v>
+        <v>3.031592651540905</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.065526234259878</v>
+        <v>3.835279092765266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.339691758539887</v>
+        <v>2.280082672975505</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.819891911575466</v>
+        <v>3.883245521549822</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.028408148718488</v>
+        <v>4.04312284691644</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8052637923752022</v>
+        <v>0.8719202820578567</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>1.415632452533078</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9256264247341259</v>
+        <v>0.9256264247341266</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4163105149433564</v>
@@ -873,7 +873,7 @@
         <v>0.554792876349573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2405805399960731</v>
+        <v>0.2405805399960733</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05820384611529927</v>
+        <v>0.01658321848091854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5922735920025591</v>
+        <v>0.5897010840339511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1185361718067233</v>
+        <v>-0.05304794868263045</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02110356917144762</v>
+        <v>-0.005095622217025778</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1878351164061418</v>
+        <v>0.1952222956920118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03766343821610799</v>
+        <v>-0.01529310458182842</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.564502118165993</v>
+        <v>1.58373989600892</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.383458522512603</v>
+        <v>2.441561333744397</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.848449947633642</v>
+        <v>1.84063380506663</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9836605902445263</v>
+        <v>0.9883240887970877</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.150099706572473</v>
+        <v>1.182962123070986</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5623880640454725</v>
+        <v>0.5647253453194341</v>
       </c>
     </row>
     <row r="16">
